--- a/INTLINE/data/136/ISTAT/Business confidence Index in the construction sector_historical.xlsx
+++ b/INTLINE/data/136/ISTAT/Business confidence Index in the construction sector_historical.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:LR2"/>
+  <dimension ref="A1:LS2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2012,6 +2012,11 @@
           <t>2022-05</t>
         </is>
       </c>
+      <c r="LS1" s="1" t="inlineStr">
+        <is>
+          <t>2022-06</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -3003,6 +3008,9 @@
       </c>
       <c r="LR2" t="n">
         <v>158.7</v>
+      </c>
+      <c r="LS2" t="n">
+        <v>159.7</v>
       </c>
     </row>
   </sheetData>
